--- a/ig/ch-epr-term/CodeSystem-2.16.756.5.30.1.127.3.10.7.xlsx
+++ b/ig/ch-epr-term/CodeSystem-2.16.756.5.30.1.127.3.10.7.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="72">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.8</t>
+    <t>2.0.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-21T08:04:16+01:00</t>
+    <t>2023-06-27T18:08:17+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -93,7 +93,7 @@
     <t>Copyright</t>
   </si>
   <si>
-    <t>CC-BY-SA-4.0</t>
+    <t>CC0-1.0</t>
   </si>
   <si>
     <t>Case Sensitive</t>
@@ -165,6 +165,12 @@
     <t>Document removal</t>
   </si>
   <si>
+    <t>ATC_DOC_SEARCH</t>
+  </si>
+  <si>
+    <t>Document search</t>
+  </si>
+  <si>
     <t>ATC_POL_CREATE_AUT_PART_AL</t>
   </si>
   <si>
@@ -217,6 +223,12 @@
   </si>
   <si>
     <t>Accessing the Patient Audit Record Repository</t>
+  </si>
+  <si>
+    <t>ATC_HPD_GROUP_ENTRY_NOTIFY</t>
+  </si>
+  <si>
+    <t>Entry of healthcare professionals into a group</t>
   </si>
 </sst>
 </file>
@@ -338,10 +350,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -529,7 +541,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -705,6 +717,30 @@
       </c>
       <c r="D14" s="2"/>
     </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ig/ch-epr-term/CodeSystem-2.16.756.5.30.1.127.3.10.7.xlsx
+++ b/ig/ch-epr-term/CodeSystem-2.16.756.5.30.1.127.3.10.7.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.9</t>
+    <t>2.0.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-27T18:08:17+02:00</t>
+    <t>2023-12-19T12:39:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
